--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_GlobalBuffAdd.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_GlobalBuffAdd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9507A35-CD53-4B41-A511-86F9E6273F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB41032-17A5-4D4D-AC88-6EE8D9C1E51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="165">
   <si>
     <t>##var</t>
   </si>
@@ -158,10 +158,6 @@
     <t>TowerAlchemy3</t>
   </si>
   <si>
-    <t>globalBuffId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>GlobalBuffAdd</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -170,17 +166,456 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>string#ref=UnitGlobalBuffCfgCategory</t>
+    <t>globalBuffGameCfgId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>globalBuffPlayerSelfCfgId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>globalBuffPlayerAllCfgId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>globalBuffUnitCfgId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameGlobalBuff_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerSelf_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerSelf_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerAll_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerAll_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=;),string#ref=GameGlobalBuffCfgCategory</t>
+  </si>
+  <si>
+    <t>(list#sep=;),string#ref=PlayerGlobalBuffCfgCategory</t>
+  </si>
+  <si>
+    <t>(list#sep=;),string#ref=UnitGlobalBuffCfgCategory</t>
+  </si>
+  <si>
+    <t>GameGlobalBuff_1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>UnitGlobalBuff_AddCoinWhenBattleEnd_TowerAlchemy1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>UnitGlobalBuff_AddCoinWhenBattleEnd_TowerAlchemy2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>UnitGlobalBuff_AddCoinWhenBattleEnd_TowerAlchemy3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerSelf_TestAll</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_MaxTowers_0</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_MaxTowers_1</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_MaxTowers_2</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_StartingGold_0</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_StartingGold_1</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_StartingGold_2</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_StartingGold_3</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_Damage_0</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_Damage_1</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_Damage_2</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_Damage_3</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_TowerCost_0</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_TowerCost_1</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_TowerCost_2</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_TowerCost_3</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_BaseHealth_0</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_BaseHealth_1</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_BaseHealth_2</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_BaseHealth_3</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_BaseRegen_0</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_BaseRegen_1</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_BaseRegen_2</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_BaseRegen_3</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_AttackRange_0</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_AttackRange_1</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_AttackRange_2</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_AttackRange_3</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_AttackInterval_0</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_AttackInterval_1</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_AttackInterval_2</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_AttackInterval_3</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_GoldRewards_0</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_GoldRewards_1</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_GoldRewards_2</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_ExtraLives_0</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_ExtraLives_1</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_DiamondRewards_0</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_DiamondRewards_1</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_DiamondRewards_2</t>
+  </si>
+  <si>
+    <t>塔最大数量+0</t>
+  </si>
+  <si>
+    <t>塔最大数量+1</t>
+  </si>
+  <si>
+    <t>塔最大数量+2</t>
+  </si>
+  <si>
+    <t>初始金币+0</t>
+  </si>
+  <si>
+    <t>初始金币+1</t>
+  </si>
+  <si>
+    <t>初始金币+2</t>
+  </si>
+  <si>
+    <t>初始金币+3</t>
+  </si>
+  <si>
+    <t>伤害+0</t>
+  </si>
+  <si>
+    <t>伤害+1</t>
+  </si>
+  <si>
+    <t>伤害+2</t>
+  </si>
+  <si>
+    <t>伤害+3</t>
+  </si>
+  <si>
+    <t>塔价格-0</t>
+  </si>
+  <si>
+    <t>塔价格-1</t>
+  </si>
+  <si>
+    <t>塔价格-2</t>
+  </si>
+  <si>
+    <t>塔价格-3</t>
+  </si>
+  <si>
+    <t>基地生命+0</t>
+  </si>
+  <si>
+    <t>基地生命+1</t>
+  </si>
+  <si>
+    <t>基地生命+2</t>
+  </si>
+  <si>
+    <t>基地生命+3</t>
+  </si>
+  <si>
+    <t>基地恢复+0</t>
+  </si>
+  <si>
+    <t>基地恢复+1</t>
+  </si>
+  <si>
+    <t>基地恢复+2</t>
+  </si>
+  <si>
+    <t>基地恢复+3</t>
+  </si>
+  <si>
+    <t>攻击范围+0</t>
+  </si>
+  <si>
+    <t>攻击范围+1</t>
+  </si>
+  <si>
+    <t>攻击范围+2</t>
+  </si>
+  <si>
+    <t>攻击范围+3</t>
+  </si>
+  <si>
+    <t>攻击间隔-0</t>
+  </si>
+  <si>
+    <t>攻击间隔-1</t>
+  </si>
+  <si>
+    <t>攻击间隔-2</t>
+  </si>
+  <si>
+    <t>攻击间隔-3</t>
+  </si>
+  <si>
+    <t>金币奖励+%0</t>
+  </si>
+  <si>
+    <t>金币奖励+%1</t>
+  </si>
+  <si>
+    <t>金币奖励+%2</t>
+  </si>
+  <si>
+    <t>复活+0</t>
+  </si>
+  <si>
+    <t>复活+1</t>
+  </si>
+  <si>
+    <t>钻石奖励+%0</t>
+  </si>
+  <si>
+    <t>钻石奖励+%1</t>
+  </si>
+  <si>
+    <t>钻石奖励+%2</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_MaxTowers_0</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_MaxTowers_1</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_MaxTowers_2</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_StartingGold_0</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_StartingGold_1</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_StartingGold_2</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_StartingGold_3</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_Damage_0</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_Damage_1</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_Damage_2</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_Damage_3</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_TowerCost_0</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_TowerCost_1</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_TowerCost_2</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_TowerCost_3</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_AttackRange_0</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_AttackRange_1</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_AttackRange_2</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_AttackRange_3</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_AttackInterval_0</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_AttackInterval_1</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_AttackInterval_2</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_AttackInterval_3</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_GoldRewards_0</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_GoldRewards_1</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_GoldRewards_2</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_ExtraLives_0</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_ExtraLives_1</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_DiamondRewards_0</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_DiamondRewards_1</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_DiamondRewards_2</t>
+  </si>
+  <si>
+    <t>GameGlobalBuff_BaseHealth_0</t>
+  </si>
+  <si>
+    <t>GameGlobalBuff_BaseHealth_1</t>
+  </si>
+  <si>
+    <t>GameGlobalBuff_BaseHealth_2</t>
+  </si>
+  <si>
+    <t>GameGlobalBuff_BaseHealth_3</t>
+  </si>
+  <si>
+    <t>GameGlobalBuff_BaseRegen_0</t>
+  </si>
+  <si>
+    <t>GameGlobalBuff_BaseRegen_1</t>
+  </si>
+  <si>
+    <t>GameGlobalBuff_BaseRegen_2</t>
+  </si>
+  <si>
+    <t>GameGlobalBuff_BaseRegen_3</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_1;PlayerGlobalBuff_2;PlayerGlobalBuff_3;PlayerGlobalBuff_4;PlayerGlobalBuff_5;PlayerGlobalBuff_6;PlayerGlobalBuff_7;PlayerGlobalBuff_8;PlayerGlobalBuff_9;PlayerGlobalBuff_10;PlayerGlobalBuff_11;PlayerGlobalBuff_12;PlayerGlobalBuff_13;PlayerGlobalBuff_14;PlayerGlobalBuff_15;PlayerGlobalBuff_16;PlayerGlobalBuff_17;PlayerGlobalBuff_18;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestAoe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_TestAoe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -301,7 +736,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -314,6 +749,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -591,11 +1029,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -606,7 +1044,7 @@
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.88671875" customWidth="1"/>
+    <col min="7" max="10" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -625,11 +1063,17 @@
         <v>3</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1"/>
-      <c r="I1"/>
-      <c r="J1"/>
+        <v>22</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="K1"/>
       <c r="L1"/>
       <c r="M1"/>
@@ -650,9 +1094,9 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
@@ -679,11 +1123,17 @@
         <v>5</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
+        <v>37</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
@@ -704,9 +1154,9 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4"/>
@@ -729,9 +1179,9 @@
         <v>7</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
@@ -758,11 +1208,17 @@
         <v>11</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
+        <v>22</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
@@ -775,7 +1231,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -788,15 +1244,18 @@
         <v>14</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -809,15 +1268,18 @@
         <v>15</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
@@ -830,10 +1292,593 @@
         <v>16</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>26</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" ref="D11:D12" si="1">B11&amp;"_"&amp;C11</f>
+        <v>GlobalBuffAdd_Game_1</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>GlobalBuffAdd_Game_2</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" ref="D14" si="2">B14&amp;"_"&amp;C14</f>
+        <v>GlobalBuffAdd_TestAoe</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" ref="D16:D17" si="3">B16&amp;"_"&amp;C16</f>
+        <v>GlobalBuffAdd_PlayerSelf_1</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="H16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="3"/>
+        <v>GlobalBuffAdd_PlayerSelf_2</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" ref="D19:D20" si="4">B19&amp;"_"&amp;C19</f>
+        <v>GlobalBuffAdd_PlayerAll_1</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="I19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="4"/>
+        <v>GlobalBuffAdd_PlayerAll_2</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="I20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" ref="D22" si="5">B22&amp;"_"&amp;C22</f>
+        <v>GlobalBuffAdd_PlayerSelf_TestAll</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" t="s">
+        <v>86</v>
+      </c>
+      <c r="H26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" t="s">
+        <v>88</v>
+      </c>
+      <c r="H28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" t="s">
+        <v>90</v>
+      </c>
+      <c r="H30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H31" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" t="s">
+        <v>92</v>
+      </c>
+      <c r="H32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" t="s">
+        <v>93</v>
+      </c>
+      <c r="H33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" t="s">
+        <v>94</v>
+      </c>
+      <c r="H34" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" t="s">
+        <v>95</v>
+      </c>
+      <c r="H35" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" t="s">
+        <v>96</v>
+      </c>
+      <c r="H36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" t="s">
+        <v>97</v>
+      </c>
+      <c r="H37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" t="s">
+        <v>98</v>
+      </c>
+      <c r="H38" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" t="s">
+        <v>99</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>61</v>
+      </c>
+      <c r="F40" t="s">
+        <v>100</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" t="s">
+        <v>101</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" t="s">
+        <v>102</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>64</v>
+      </c>
+      <c r="F43" t="s">
+        <v>103</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F44" t="s">
+        <v>104</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F45" t="s">
+        <v>105</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>67</v>
+      </c>
+      <c r="F46" t="s">
+        <v>106</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47" t="s">
+        <v>107</v>
+      </c>
+      <c r="H47" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="F48" t="s">
+        <v>108</v>
+      </c>
+      <c r="H48" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>70</v>
+      </c>
+      <c r="F49" t="s">
+        <v>109</v>
+      </c>
+      <c r="H49" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F50" t="s">
+        <v>110</v>
+      </c>
+      <c r="H50" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>72</v>
+      </c>
+      <c r="F51" t="s">
+        <v>111</v>
+      </c>
+      <c r="H51" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>73</v>
+      </c>
+      <c r="F52" t="s">
+        <v>112</v>
+      </c>
+      <c r="H52" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>74</v>
+      </c>
+      <c r="F53" t="s">
+        <v>113</v>
+      </c>
+      <c r="H53" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="54" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>75</v>
+      </c>
+      <c r="F54" t="s">
+        <v>114</v>
+      </c>
+      <c r="H54" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>76</v>
+      </c>
+      <c r="F55" t="s">
+        <v>115</v>
+      </c>
+      <c r="H55" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>77</v>
+      </c>
+      <c r="F56" t="s">
+        <v>116</v>
+      </c>
+      <c r="H56" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>78</v>
+      </c>
+      <c r="F57" t="s">
+        <v>117</v>
+      </c>
+      <c r="H57" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="58" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>79</v>
+      </c>
+      <c r="F58" t="s">
+        <v>118</v>
+      </c>
+      <c r="I58" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="59" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>80</v>
+      </c>
+      <c r="F59" t="s">
+        <v>119</v>
+      </c>
+      <c r="I59" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>81</v>
+      </c>
+      <c r="F60" t="s">
+        <v>120</v>
+      </c>
+      <c r="H60" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>82</v>
+      </c>
+      <c r="F61" t="s">
+        <v>121</v>
+      </c>
+      <c r="H61" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>83</v>
+      </c>
+      <c r="F62" t="s">
+        <v>122</v>
+      </c>
+      <c r="H62" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_GlobalBuffAdd.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_GlobalBuffAdd.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB41032-17A5-4D4D-AC88-6EE8D9C1E51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3564CF1-73EA-461D-976D-3C113F38D034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="141">
   <si>
     <t>##var</t>
   </si>
@@ -321,9 +310,6 @@
     <t>GlobalBuffAdd_BaseRegen_2</t>
   </si>
   <si>
-    <t>GlobalBuffAdd_BaseRegen_3</t>
-  </si>
-  <si>
     <t>GlobalBuffAdd_AttackRange_0</t>
   </si>
   <si>
@@ -372,123 +358,6 @@
     <t>GlobalBuffAdd_DiamondRewards_2</t>
   </si>
   <si>
-    <t>塔最大数量+0</t>
-  </si>
-  <si>
-    <t>塔最大数量+1</t>
-  </si>
-  <si>
-    <t>塔最大数量+2</t>
-  </si>
-  <si>
-    <t>初始金币+0</t>
-  </si>
-  <si>
-    <t>初始金币+1</t>
-  </si>
-  <si>
-    <t>初始金币+2</t>
-  </si>
-  <si>
-    <t>初始金币+3</t>
-  </si>
-  <si>
-    <t>伤害+0</t>
-  </si>
-  <si>
-    <t>伤害+1</t>
-  </si>
-  <si>
-    <t>伤害+2</t>
-  </si>
-  <si>
-    <t>伤害+3</t>
-  </si>
-  <si>
-    <t>塔价格-0</t>
-  </si>
-  <si>
-    <t>塔价格-1</t>
-  </si>
-  <si>
-    <t>塔价格-2</t>
-  </si>
-  <si>
-    <t>塔价格-3</t>
-  </si>
-  <si>
-    <t>基地生命+0</t>
-  </si>
-  <si>
-    <t>基地生命+1</t>
-  </si>
-  <si>
-    <t>基地生命+2</t>
-  </si>
-  <si>
-    <t>基地生命+3</t>
-  </si>
-  <si>
-    <t>基地恢复+0</t>
-  </si>
-  <si>
-    <t>基地恢复+1</t>
-  </si>
-  <si>
-    <t>基地恢复+2</t>
-  </si>
-  <si>
-    <t>基地恢复+3</t>
-  </si>
-  <si>
-    <t>攻击范围+0</t>
-  </si>
-  <si>
-    <t>攻击范围+1</t>
-  </si>
-  <si>
-    <t>攻击范围+2</t>
-  </si>
-  <si>
-    <t>攻击范围+3</t>
-  </si>
-  <si>
-    <t>攻击间隔-0</t>
-  </si>
-  <si>
-    <t>攻击间隔-1</t>
-  </si>
-  <si>
-    <t>攻击间隔-2</t>
-  </si>
-  <si>
-    <t>攻击间隔-3</t>
-  </si>
-  <si>
-    <t>金币奖励+%0</t>
-  </si>
-  <si>
-    <t>金币奖励+%1</t>
-  </si>
-  <si>
-    <t>金币奖励+%2</t>
-  </si>
-  <si>
-    <t>复活+0</t>
-  </si>
-  <si>
-    <t>复活+1</t>
-  </si>
-  <si>
-    <t>钻石奖励+%0</t>
-  </si>
-  <si>
-    <t>钻石奖励+%1</t>
-  </si>
-  <si>
-    <t>钻石奖励+%2</t>
-  </si>
-  <si>
     <t>PlayerGlobalBuff_MaxTowers_0</t>
   </si>
   <si>
@@ -603,9 +472,6 @@
     <t>GameGlobalBuff_BaseRegen_2</t>
   </si>
   <si>
-    <t>GameGlobalBuff_BaseRegen_3</t>
-  </si>
-  <si>
     <t>PlayerGlobalBuff_1;PlayerGlobalBuff_2;PlayerGlobalBuff_3;PlayerGlobalBuff_4;PlayerGlobalBuff_5;PlayerGlobalBuff_6;PlayerGlobalBuff_7;PlayerGlobalBuff_8;PlayerGlobalBuff_9;PlayerGlobalBuff_10;PlayerGlobalBuff_11;PlayerGlobalBuff_12;PlayerGlobalBuff_13;PlayerGlobalBuff_14;PlayerGlobalBuff_15;PlayerGlobalBuff_16;PlayerGlobalBuff_17;PlayerGlobalBuff_18;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -616,6 +482,57 @@
   <si>
     <t>PlayerGlobalBuff_TestAoe</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔最大数量+</t>
+  </si>
+  <si>
+    <t>初始金币+</t>
+  </si>
+  <si>
+    <t>伤害+</t>
+  </si>
+  <si>
+    <t>塔价格-</t>
+  </si>
+  <si>
+    <t>基地生命+</t>
+  </si>
+  <si>
+    <t>基地恢复+</t>
+  </si>
+  <si>
+    <t>攻击范围+</t>
+  </si>
+  <si>
+    <t>攻击间隔-</t>
+  </si>
+  <si>
+    <t>金币奖励+%</t>
+  </si>
+  <si>
+    <t>复活+</t>
+  </si>
+  <si>
+    <t>钻石奖励+%</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_DiamondRewards_3</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_DiamondRewards_3</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_DiamondRewards_4</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_DiamondRewards_4</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_MaxTowers_3</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_MaxTowers_3</t>
   </si>
 </sst>
 </file>
@@ -1029,25 +946,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S62"/>
+  <dimension ref="A1:S64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <pane ySplit="6" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="23.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1084,7 +1001,7 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1107,7 +1024,7 @@
       <c r="R2"/>
       <c r="S2"/>
     </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1144,7 +1061,7 @@
       <c r="R3"/>
       <c r="S3"/>
     </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -1167,7 +1084,7 @@
       <c r="R4"/>
       <c r="S4"/>
     </row>
-    <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -1192,7 +1109,7 @@
       <c r="R5"/>
       <c r="S5"/>
     </row>
-    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1229,7 +1146,7 @@
       <c r="R6"/>
       <c r="S6"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
@@ -1253,7 +1170,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
@@ -1277,7 +1194,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
@@ -1301,7 +1218,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
@@ -1320,7 +1237,7 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
         <v>20</v>
       </c>
@@ -1339,7 +1256,7 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="F13" s="7"/>
@@ -1348,12 +1265,12 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" ref="D14" si="2">B14&amp;"_"&amp;C14</f>
@@ -1362,12 +1279,12 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
         <v>20</v>
       </c>
@@ -1385,7 +1302,7 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
         <v>20</v>
       </c>
@@ -1403,7 +1320,7 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
         <v>20</v>
       </c>
@@ -1420,7 +1337,7 @@
       </c>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
         <v>20</v>
       </c>
@@ -1437,7 +1354,7 @@
       </c>
       <c r="J20" s="7"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="6" t="s">
         <v>20</v>
       </c>
@@ -1449,436 +1366,458 @@
         <v>GlobalBuffAdd_PlayerSelf_TestAll</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
         <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="H24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
         <v>46</v>
       </c>
       <c r="F25" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="H25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
         <v>47</v>
       </c>
       <c r="F26" t="s">
+        <v>124</v>
+      </c>
+      <c r="H26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" t="s">
+        <v>124</v>
+      </c>
+      <c r="H27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" t="s">
+        <v>125</v>
+      </c>
+      <c r="H28" t="s">
         <v>86</v>
       </c>
-      <c r="H26" t="s">
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="H29" t="s">
         <v>87</v>
       </c>
-      <c r="H27" t="s">
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" t="s">
+        <v>125</v>
+      </c>
+      <c r="H30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" t="s">
+        <v>125</v>
+      </c>
+      <c r="H31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" t="s">
-        <v>88</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="H32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" t="s">
+        <v>126</v>
+      </c>
+      <c r="H33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" t="s">
+        <v>126</v>
+      </c>
+      <c r="H34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" t="s">
+        <v>126</v>
+      </c>
+      <c r="H35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>50</v>
-      </c>
-      <c r="F29" t="s">
-        <v>89</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="H36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37" t="s">
+        <v>127</v>
+      </c>
+      <c r="H37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" t="s">
+        <v>127</v>
+      </c>
+      <c r="H38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" t="s">
+        <v>127</v>
+      </c>
+      <c r="H39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>51</v>
-      </c>
-      <c r="F30" t="s">
-        <v>90</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="G40" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>61</v>
+      </c>
+      <c r="F41" t="s">
+        <v>128</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>62</v>
+      </c>
+      <c r="F42" t="s">
+        <v>128</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>63</v>
+      </c>
+      <c r="F43" t="s">
+        <v>128</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>64</v>
+      </c>
+      <c r="F44" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>52</v>
-      </c>
-      <c r="F31" t="s">
-        <v>91</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="G44" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45" t="s">
+        <v>129</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>66</v>
+      </c>
+      <c r="F46" t="s">
+        <v>129</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>67</v>
+      </c>
+      <c r="F47" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>53</v>
-      </c>
-      <c r="F32" t="s">
-        <v>92</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="H47" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48" t="s">
+        <v>130</v>
+      </c>
+      <c r="H48" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="F49" t="s">
+        <v>130</v>
+      </c>
+      <c r="H49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>70</v>
+      </c>
+      <c r="F50" t="s">
+        <v>130</v>
+      </c>
+      <c r="H50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>71</v>
+      </c>
+      <c r="F51" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
-        <v>54</v>
-      </c>
-      <c r="F33" t="s">
-        <v>93</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="H51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>72</v>
+      </c>
+      <c r="F52" t="s">
+        <v>131</v>
+      </c>
+      <c r="H52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>73</v>
+      </c>
+      <c r="F53" t="s">
+        <v>131</v>
+      </c>
+      <c r="H53" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>74</v>
+      </c>
+      <c r="F54" t="s">
+        <v>131</v>
+      </c>
+      <c r="H54" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>75</v>
+      </c>
+      <c r="F55" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
-        <v>55</v>
-      </c>
-      <c r="F34" t="s">
-        <v>94</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="H55" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>76</v>
+      </c>
+      <c r="F56" t="s">
+        <v>132</v>
+      </c>
+      <c r="H56" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>77</v>
+      </c>
+      <c r="F57" t="s">
+        <v>132</v>
+      </c>
+      <c r="H57" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>78</v>
+      </c>
+      <c r="F58" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F35" t="s">
-        <v>95</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="I58" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>79</v>
+      </c>
+      <c r="F59" t="s">
+        <v>133</v>
+      </c>
+      <c r="I59" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>80</v>
+      </c>
+      <c r="F60" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F36" t="s">
-        <v>96</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="H60" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>81</v>
+      </c>
+      <c r="F61" t="s">
+        <v>134</v>
+      </c>
+      <c r="H61" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="62" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>82</v>
+      </c>
+      <c r="F62" t="s">
+        <v>134</v>
+      </c>
+      <c r="H62" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D63" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="37" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
-        <v>58</v>
-      </c>
-      <c r="F37" t="s">
-        <v>97</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="F63" t="s">
+        <v>134</v>
+      </c>
+      <c r="H63" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
-        <v>59</v>
-      </c>
-      <c r="F38" t="s">
-        <v>98</v>
-      </c>
-      <c r="H38" t="s">
+    <row r="64" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D64" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
-        <v>60</v>
-      </c>
-      <c r="F39" t="s">
-        <v>99</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
-        <v>61</v>
-      </c>
-      <c r="F40" t="s">
-        <v>100</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
-        <v>62</v>
-      </c>
-      <c r="F41" t="s">
-        <v>101</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="42" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
-        <v>63</v>
-      </c>
-      <c r="F42" t="s">
-        <v>102</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="43" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
-        <v>64</v>
-      </c>
-      <c r="F43" t="s">
-        <v>103</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="44" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D44" t="s">
-        <v>65</v>
-      </c>
-      <c r="F44" t="s">
-        <v>104</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="45" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D45" t="s">
-        <v>66</v>
-      </c>
-      <c r="F45" t="s">
-        <v>105</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="46" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D46" t="s">
-        <v>67</v>
-      </c>
-      <c r="F46" t="s">
-        <v>106</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="47" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D47" t="s">
-        <v>68</v>
-      </c>
-      <c r="F47" t="s">
-        <v>107</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="F64" t="s">
+        <v>134</v>
+      </c>
+      <c r="H64" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="48" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D48" t="s">
-        <v>69</v>
-      </c>
-      <c r="F48" t="s">
-        <v>108</v>
-      </c>
-      <c r="H48" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="49" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D49" t="s">
-        <v>70</v>
-      </c>
-      <c r="F49" t="s">
-        <v>109</v>
-      </c>
-      <c r="H49" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="50" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D50" t="s">
-        <v>71</v>
-      </c>
-      <c r="F50" t="s">
-        <v>110</v>
-      </c>
-      <c r="H50" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="51" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D51" t="s">
-        <v>72</v>
-      </c>
-      <c r="F51" t="s">
-        <v>111</v>
-      </c>
-      <c r="H51" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="52" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D52" t="s">
-        <v>73</v>
-      </c>
-      <c r="F52" t="s">
-        <v>112</v>
-      </c>
-      <c r="H52" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="53" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D53" t="s">
-        <v>74</v>
-      </c>
-      <c r="F53" t="s">
-        <v>113</v>
-      </c>
-      <c r="H53" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="54" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D54" t="s">
-        <v>75</v>
-      </c>
-      <c r="F54" t="s">
-        <v>114</v>
-      </c>
-      <c r="H54" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="55" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D55" t="s">
-        <v>76</v>
-      </c>
-      <c r="F55" t="s">
-        <v>115</v>
-      </c>
-      <c r="H55" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="56" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D56" t="s">
-        <v>77</v>
-      </c>
-      <c r="F56" t="s">
-        <v>116</v>
-      </c>
-      <c r="H56" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="57" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D57" t="s">
-        <v>78</v>
-      </c>
-      <c r="F57" t="s">
-        <v>117</v>
-      </c>
-      <c r="H57" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="58" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D58" t="s">
-        <v>79</v>
-      </c>
-      <c r="F58" t="s">
-        <v>118</v>
-      </c>
-      <c r="I58" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="59" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D59" t="s">
-        <v>80</v>
-      </c>
-      <c r="F59" t="s">
-        <v>119</v>
-      </c>
-      <c r="I59" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="60" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D60" t="s">
-        <v>81</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
-      </c>
-      <c r="H60" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="61" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D61" t="s">
-        <v>82</v>
-      </c>
-      <c r="F61" t="s">
-        <v>121</v>
-      </c>
-      <c r="H61" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="62" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D62" t="s">
-        <v>83</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
-      </c>
-      <c r="H62" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_GlobalBuffAdd.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_GlobalBuffAdd.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3564CF1-73EA-461D-976D-3C113F38D034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E3840B-8059-459C-B59A-41CBD932E9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="156">
   <si>
     <t>##var</t>
   </si>
@@ -129,36 +129,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>炼金塔1</t>
-  </si>
-  <si>
-    <t>炼金塔2</t>
-  </si>
-  <si>
-    <t>炼金塔3</t>
-  </si>
-  <si>
-    <t>TowerAlchemy1</t>
-  </si>
-  <si>
-    <t>TowerAlchemy2</t>
-  </si>
-  <si>
-    <t>TowerAlchemy3</t>
-  </si>
-  <si>
-    <t>GlobalBuffAdd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合加钱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>globalBuffGameCfgId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>globalBuffPlayerSelfCfgId</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -171,14 +141,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Game_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Game_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>GameGlobalBuff_2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -191,22 +153,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>PlayerSelf_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayerSelf_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayerAll_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayerAll_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>PlayerGlobalBuff_3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -228,22 +174,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>UnitGlobalBuff_AddCoinWhenBattleEnd_TowerAlchemy1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitGlobalBuff_AddCoinWhenBattleEnd_TowerAlchemy2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitGlobalBuff_AddCoinWhenBattleEnd_TowerAlchemy3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayerSelf_TestAll</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>GlobalBuffAdd_MaxTowers_0</t>
   </si>
   <si>
@@ -298,9 +228,6 @@
     <t>GlobalBuffAdd_BaseHealth_2</t>
   </si>
   <si>
-    <t>GlobalBuffAdd_BaseHealth_3</t>
-  </si>
-  <si>
     <t>GlobalBuffAdd_BaseRegen_0</t>
   </si>
   <si>
@@ -460,9 +387,6 @@
     <t>GameGlobalBuff_BaseHealth_2</t>
   </si>
   <si>
-    <t>GameGlobalBuff_BaseHealth_3</t>
-  </si>
-  <si>
     <t>GameGlobalBuff_BaseRegen_0</t>
   </si>
   <si>
@@ -476,10 +400,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>TestAoe</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>PlayerGlobalBuff_TestAoe</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -517,22 +437,149 @@
     <t>钻石奖励+%</t>
   </si>
   <si>
+    <t>PlayerGlobalBuff_DiamondRewards_3</t>
+  </si>
+  <si>
+    <t>globalBuffHomeTeamCfgId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>给阵营加globalBuff</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>给自身加globalBuff</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>给同个阵营所有player加globalBuff</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>给自身unit加globalBuff</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_Game_1</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_Game_2</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_TestAoe</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_PlayerSelf_1</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_PlayerSelf_2</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_PlayerAll_1</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_PlayerAll_2</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_PlayerSelf_TestAll</t>
+  </si>
+  <si>
+    <t>炼金塔普通攻击1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼金塔普通攻击2</t>
+  </si>
+  <si>
+    <t>炼金塔普通攻击3</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_NormalAttack_Tower_Alchemy2</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_NormalAttack_Tower_Alchemy3</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_NormalAttack_Tower_Alchemy1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitGlobalBuff_NormalAttack_Tower_Alchemy1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitGlobalBuff_NormalAttack_Tower_Alchemy2</t>
+  </si>
+  <si>
+    <t>UnitGlobalBuff_NormalAttack_Tower_Alchemy3</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_TestProps</t>
+  </si>
+  <si>
+    <t>测试道具</t>
+  </si>
+  <si>
+    <t>GameGlobalBuff_TestProps</t>
+  </si>
+  <si>
+    <t>测试天气(TeamWildMonster)</t>
+  </si>
+  <si>
+    <t>GameGlobalBuff_TestWeather_TeamMonster</t>
+  </si>
+  <si>
+    <t>测试天气(TeamMonster)</t>
+  </si>
+  <si>
+    <t>GameGlobalBuff_TestWeather_TeamGlobal</t>
+  </si>
+  <si>
+    <t>测试天气(TeamGlobal)</t>
+  </si>
+  <si>
     <t>GlobalBuffAdd_DiamondRewards_3</t>
-  </si>
-  <si>
-    <t>PlayerGlobalBuff_DiamondRewards_3</t>
-  </si>
-  <si>
-    <t>GlobalBuffAdd_DiamondRewards_4</t>
-  </si>
-  <si>
-    <t>PlayerGlobalBuff_DiamondRewards_4</t>
-  </si>
-  <si>
-    <t>GlobalBuffAdd_MaxTowers_3</t>
-  </si>
-  <si>
-    <t>PlayerGlobalBuff_MaxTowers_3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_TestWeather_TeamWildMonster</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_TestWeather_TeamMonster</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_TestWeather_TeamGlobal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_TestSynergy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试羁绊1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_TestSynergy1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_GoToDie_Org_BattleEnd</t>
+  </si>
+  <si>
+    <t>GlobalBuffAdd_GoToDie_Org_PlayerQuit</t>
+  </si>
+  <si>
+    <t>UnitGlobalBuff_GoToDie_Org_BattleEnd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitGlobalBuff_GoToDie_Org_PlayerQuit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameGlobalBuff_TestWeather_TeamWildMonster</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -946,51 +993,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S64"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A47" sqref="A47:XFD47"/>
+      <pane ySplit="6" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A75" sqref="A75:XFD81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="43.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="G1" s="8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="I1"/>
+      <c r="J1"/>
       <c r="K1"/>
       <c r="L1"/>
       <c r="M1"/>
@@ -998,10 +1043,8 @@
       <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
-      <c r="R1"/>
-      <c r="S1"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1012,8 +1055,8 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="I2"/>
+      <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
@@ -1021,36 +1064,34 @@
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-    </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="G3" s="9" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>39</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
@@ -1058,10 +1099,8 @@
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -1072,8 +1111,8 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="I4"/>
+      <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4"/>
@@ -1081,24 +1120,22 @@
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-    </row>
-    <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="I5"/>
+      <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
@@ -1106,36 +1143,34 @@
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-    </row>
-    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D6" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
@@ -1143,681 +1178,635 @@
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="str">
-        <f t="shared" ref="D7:D9" si="0">B7&amp;"_"&amp;C7</f>
-        <v>GlobalBuffAdd_TowerAlchemy1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>GlobalBuffAdd_TowerAlchemy2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>GlobalBuffAdd_TowerAlchemy3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" ref="D11:D12" si="1">B11&amp;"_"&amp;C11</f>
-        <v>GlobalBuffAdd_Game_1</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="1"/>
-        <v>GlobalBuffAdd_Game_2</v>
-      </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B14" s="6" t="s">
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="G19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" ref="D14" si="2">B14&amp;"_"&amp;C14</f>
-        <v>GlobalBuffAdd_TestAoe</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="G20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>31</v>
       </c>
-      <c r="D16" t="str">
-        <f t="shared" ref="D16:D17" si="3">B16&amp;"_"&amp;C16</f>
-        <v>GlobalBuffAdd_PlayerSelf_1</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="H16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="D29" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>32</v>
       </c>
-      <c r="D17" t="str">
-        <f t="shared" si="3"/>
-        <v>GlobalBuffAdd_PlayerSelf_2</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="H17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="D30" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>33</v>
       </c>
-      <c r="D19" t="str">
-        <f t="shared" ref="D19:D20" si="4">B19&amp;"_"&amp;C19</f>
-        <v>GlobalBuffAdd_PlayerAll_1</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="I19" s="7" t="s">
+      <c r="D31" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>35</v>
       </c>
-      <c r="J19" s="7"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" si="4"/>
-        <v>GlobalBuffAdd_PlayerAll_2</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="I20" s="7" t="s">
+      <c r="D33" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="7"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="D34" t="s">
+        <v>104</v>
+      </c>
+      <c r="F34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" t="s">
+        <v>106</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>44</v>
       </c>
-      <c r="D22" t="str">
-        <f t="shared" ref="D22" si="5">B22&amp;"_"&amp;C22</f>
-        <v>GlobalBuffAdd_PlayerSelf_TestAll</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D24" t="s">
+      <c r="D42" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
         <v>45</v>
       </c>
-      <c r="F24" t="s">
-        <v>124</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="D43" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" t="s">
+        <v>107</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" t="s">
+        <v>108</v>
+      </c>
+      <c r="F45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" t="s">
+        <v>108</v>
+      </c>
+      <c r="F46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" t="s">
+        <v>108</v>
+      </c>
+      <c r="F47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" t="s">
+        <v>108</v>
+      </c>
+      <c r="F48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" t="s">
+        <v>109</v>
+      </c>
+      <c r="F49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F50" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" t="s">
-        <v>124</v>
-      </c>
-      <c r="H25" t="s">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D26" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" t="s">
-        <v>124</v>
-      </c>
-      <c r="H26" t="s">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" t="s">
+        <v>109</v>
+      </c>
+      <c r="F52" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D27" t="s">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" t="s">
+        <v>110</v>
+      </c>
+      <c r="F53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54" t="s">
+        <v>110</v>
+      </c>
+      <c r="F54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" t="s">
+        <v>110</v>
+      </c>
+      <c r="F55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" t="s">
+        <v>111</v>
+      </c>
+      <c r="G56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" t="s">
+        <v>111</v>
+      </c>
+      <c r="G57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B61" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D61" t="s">
+        <v>112</v>
+      </c>
+      <c r="F61" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B65" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" t="s">
+        <v>137</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" t="s">
         <v>139</v>
       </c>
-      <c r="F27" t="s">
-        <v>124</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="E66" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>146</v>
+      </c>
+      <c r="C67" t="s">
+        <v>141</v>
+      </c>
+      <c r="E67" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D28" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28" t="s">
-        <v>125</v>
-      </c>
-      <c r="H28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D29" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" t="s">
-        <v>125</v>
-      </c>
-      <c r="H29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30" t="s">
-        <v>125</v>
-      </c>
-      <c r="H30" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D31" t="s">
-        <v>51</v>
-      </c>
-      <c r="F31" t="s">
-        <v>125</v>
-      </c>
-      <c r="H31" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D32" t="s">
-        <v>52</v>
-      </c>
-      <c r="F32" t="s">
-        <v>126</v>
-      </c>
-      <c r="H32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D33" t="s">
-        <v>53</v>
-      </c>
-      <c r="F33" t="s">
-        <v>126</v>
-      </c>
-      <c r="H33" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D34" t="s">
-        <v>54</v>
-      </c>
-      <c r="F34" t="s">
-        <v>126</v>
-      </c>
-      <c r="H34" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D35" t="s">
-        <v>55</v>
-      </c>
-      <c r="F35" t="s">
-        <v>126</v>
-      </c>
-      <c r="H35" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D36" t="s">
-        <v>56</v>
-      </c>
-      <c r="F36" t="s">
-        <v>127</v>
-      </c>
-      <c r="H36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D37" t="s">
-        <v>57</v>
-      </c>
-      <c r="F37" t="s">
-        <v>127</v>
-      </c>
-      <c r="H37" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F38" t="s">
-        <v>127</v>
-      </c>
-      <c r="H38" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D39" t="s">
-        <v>59</v>
-      </c>
-      <c r="F39" t="s">
-        <v>127</v>
-      </c>
-      <c r="H39" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D40" t="s">
-        <v>60</v>
-      </c>
-      <c r="F40" t="s">
-        <v>128</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D41" t="s">
-        <v>61</v>
-      </c>
-      <c r="F41" t="s">
-        <v>128</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D42" t="s">
-        <v>62</v>
-      </c>
-      <c r="F42" t="s">
-        <v>128</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="43" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D43" t="s">
-        <v>63</v>
-      </c>
-      <c r="F43" t="s">
-        <v>128</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="44" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D44" t="s">
-        <v>64</v>
-      </c>
-      <c r="F44" t="s">
-        <v>129</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="45" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D45" t="s">
-        <v>65</v>
-      </c>
-      <c r="F45" t="s">
-        <v>129</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="46" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D46" t="s">
-        <v>66</v>
-      </c>
-      <c r="F46" t="s">
-        <v>129</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="47" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D47" t="s">
-        <v>67</v>
-      </c>
-      <c r="F47" t="s">
-        <v>130</v>
-      </c>
-      <c r="H47" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="48" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D48" t="s">
-        <v>68</v>
-      </c>
-      <c r="F48" t="s">
-        <v>130</v>
-      </c>
-      <c r="H48" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D49" t="s">
-        <v>69</v>
-      </c>
-      <c r="F49" t="s">
-        <v>130</v>
-      </c>
-      <c r="H49" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D50" t="s">
-        <v>70</v>
-      </c>
-      <c r="F50" t="s">
-        <v>130</v>
-      </c>
-      <c r="H50" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="51" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D51" t="s">
-        <v>71</v>
-      </c>
-      <c r="F51" t="s">
-        <v>131</v>
-      </c>
-      <c r="H51" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="52" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D52" t="s">
-        <v>72</v>
-      </c>
-      <c r="F52" t="s">
-        <v>131</v>
-      </c>
-      <c r="H52" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D53" t="s">
-        <v>73</v>
-      </c>
-      <c r="F53" t="s">
-        <v>131</v>
-      </c>
-      <c r="H53" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="54" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D54" t="s">
-        <v>74</v>
-      </c>
-      <c r="F54" t="s">
-        <v>131</v>
-      </c>
-      <c r="H54" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D55" t="s">
-        <v>75</v>
-      </c>
-      <c r="F55" t="s">
-        <v>132</v>
-      </c>
-      <c r="H55" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="56" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D56" t="s">
-        <v>76</v>
-      </c>
-      <c r="F56" t="s">
-        <v>132</v>
-      </c>
-      <c r="H56" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="57" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D57" t="s">
-        <v>77</v>
-      </c>
-      <c r="F57" t="s">
-        <v>132</v>
-      </c>
-      <c r="H57" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="58" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D58" t="s">
-        <v>78</v>
-      </c>
-      <c r="F58" t="s">
-        <v>133</v>
-      </c>
-      <c r="I58" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="59" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D59" t="s">
-        <v>79</v>
-      </c>
-      <c r="F59" t="s">
-        <v>133</v>
-      </c>
-      <c r="I59" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="60" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D60" t="s">
-        <v>80</v>
-      </c>
-      <c r="F60" t="s">
-        <v>134</v>
-      </c>
-      <c r="H60" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="61" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D61" t="s">
-        <v>81</v>
-      </c>
-      <c r="F61" t="s">
-        <v>134</v>
-      </c>
-      <c r="H61" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="62" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D62" t="s">
-        <v>82</v>
-      </c>
-      <c r="F62" t="s">
-        <v>134</v>
-      </c>
-      <c r="H62" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="63" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D63" t="s">
-        <v>135</v>
-      </c>
-      <c r="F63" t="s">
-        <v>134</v>
-      </c>
-      <c r="H63" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="64" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D64" t="s">
-        <v>137</v>
-      </c>
-      <c r="F64" t="s">
-        <v>134</v>
-      </c>
-      <c r="H64" t="s">
-        <v>138</v>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B68" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68" t="s">
+        <v>143</v>
+      </c>
+      <c r="E68" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B69" s="6"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B70" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B72" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B73" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
